--- a/Program/Other/URS會議審查紀錄/DbLayouts/L2-業務作業/ReltMain.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L2-業務作業/ReltMain.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C9BAA6-24D4-4E96-977F-DA85069C3244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -196,15 +197,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>1 持股比例
-2 被持股比例
-3 持有股份
-4 出資額
-5 關係人
-9 其它</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>備註類型</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -249,23 +241,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>共用代碼檔(CustRelationType)
-01 本人
-02 配偶
-03 祖(外祖)父母
-04 父母
-05 兄弟姊妹
-06 子女
-07 孫(外孫)子女
-08 有控制與從屬關係
-09 相互投資關係
-10 董事長
-11 董事
-12 監察人
-99 其他</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>關係</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -352,12 +327,38 @@
   <si>
     <t>ReltMain</t>
     <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>共用代碼檔(CustRelationType)
+01:本人
+02:配偶
+03:祖(外祖)父母
+04:父母
+05:兄弟姊妹
+06:子女
+07:孫(外孫)子女
+08:有控制與從屬關係
+09:相互投資關係
+10:董事長
+11:董事
+12:監察人
+99:其他</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:持股比例
+2:被持股比例
+3:持有股份
+4:出資額
+5:關係人
+9:其它</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -666,12 +667,12 @@
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="2"/>
-    <cellStyle name="一般 2 3" xfId="3"/>
-    <cellStyle name="一般 2 4" xfId="4"/>
-    <cellStyle name="一般 2 5" xfId="5"/>
-    <cellStyle name="一般 2 6" xfId="6"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="一般 2 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="一般 2 5" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="一般 2 6" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -762,6 +763,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -797,6 +815,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -972,11 +1007,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -996,10 +1031,10 @@
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="9"/>
@@ -1024,7 +1059,7 @@
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="12"/>
@@ -1061,7 +1096,7 @@
       </c>
       <c r="B6" s="29"/>
       <c r="C6" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="12"/>
@@ -1074,7 +1109,7 @@
       </c>
       <c r="B7" s="29"/>
       <c r="C7" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="12"/>
@@ -1109,13 +1144,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" s="18">
         <v>7</v>
@@ -1128,13 +1163,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="23" t="s">
         <v>38</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>39</v>
       </c>
       <c r="E10" s="23">
         <v>7</v>
@@ -1147,10 +1182,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>3</v>
@@ -1169,7 +1204,7 @@
         <v>27</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>3</v>
@@ -1179,7 +1214,7 @@
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="16" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="97.2" x14ac:dyDescent="0.3">
@@ -1187,10 +1222,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>28</v>
@@ -1200,7 +1235,7 @@
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="22" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1227,10 +1262,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>3</v>
@@ -1246,13 +1281,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E16" s="23">
         <v>8</v>
@@ -1349,7 +1384,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1378,64 +1413,64 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
